--- a/sp_25_scored_applicants - Master.xlsx
+++ b/sp_25_scored_applicants - Master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\aba-interview-scoring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB81261B-7FFE-4EF5-84CB-43D14D54E162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2911AD4E-D3BE-42C4-B61E-E6F4580377E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8EEA3132-8798-4AF1-A706-D02507A685A9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1863" uniqueCount="1115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1876" uniqueCount="1123">
   <si>
     <t>Timestamp</t>
   </si>
@@ -4210,6 +4210,36 @@
   </si>
   <si>
     <t>TS - Elaborate Prompt</t>
+  </si>
+  <si>
+    <t>jenniewang619@berkeley.edu</t>
+  </si>
+  <si>
+    <t>Jennie Wang</t>
+  </si>
+  <si>
+    <t>Economics, English</t>
+  </si>
+  <si>
+    <t>Certificate in Entrepreneurship &amp; Technology</t>
+  </si>
+  <si>
+    <t>Classes (Econ 100A, Econ 100B, English 90, English 45C) - 16 units
+Internship - 6 hours
+Innovative Design Club - 4 hours
+Business Review at Berkeley - 2 hours</t>
+  </si>
+  <si>
+    <t>As an aspiring marketing strategist who hopes to work in the financial or software industries upon graduation, I feel that ABA is an amazing environment for me to pursue my professional goal of working in business strategy and join a community of passionate, like-minded individuals. Especially as a sophomore in my fourth semester, Iâ€™m truly searching for a family at Berkeley who can not only help me grow in my career, but become people I can trust, rely on, and support through all my professional and personal endeavors. 
+I love how ABA provides students with the unique opportunity to gain hands-on experiences in consulting and marketing, all while offering a genuinely supportive and uplifting environment. Even through simple conversations with members at coffee chats, I was genuinely welcomed by the members of ABA -- I felt genuinely interested in everyoneâ€™s experiences in consulting and their diverse personal backgrounds, and the organization immediately stood out to me. As a re-applicant from last semester, I also appreciate ABAâ€™s eager desire to give back to their members and help them grow, and I was honestly amazed by the warm atmosphere during the recruitment events, social rounds, and interviews I experienced.
+For my team experience, I'm looking for mentorship and community. I hope to learn from senior consultants and project managers to expand my business intuition, and hopefully figure out which areas of business excite me the most. I also want to gain more confidence in expressing my ideas and voicing my opinions, rather than shying away from opportunities to speak up!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The value "In it together" resonates with me deeply as I truly believe in the value of community support and finding success through relying and collaborating with others. I believe that success is never found alone, but rather through tackling challenges and obstacles together. I grew up in a big family with three siblings, including a twin sister. My siblings taught me how to support others, advocate for my opinions, care for my friends, and most importantly, how to be a good team player. These early childhood experiences solidified my belief that taking ownership and responsibility alongside team members is integral to oneâ€™s life, and I have definitely carried this mindset with me throughout my college career.
+Because of this, I thrive in team environments and love the excitement of exchanging ideas and opinions with a group of diverse-minded people. I consider myself to be very open-minded, and I work best alongside colleagues who value compassion and empathy as much as I do. For instance, I love to collaborate with others through Innovative Design, UC Berkeley's largest student-run creative agency. It's been an exciting experience for me to work with a team of 10 photographers every semester, orchestrating large-scale photoshoots and traversing across Mt. Tamalpais to the Berkeley Fire Trails in hunt for the perfect shot! </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1aRBK4eL6QvwL_N-H3U5xCYTpafA9ljSm</t>
   </si>
 </sst>
 </file>
@@ -4693,10 +4723,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4742,7 +4775,30 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dotted">
+          <color auto="1"/>
+        </left>
+        <right style="dotted">
+          <color auto="1"/>
+        </right>
+        <top style="dotted">
+          <color auto="1"/>
+        </top>
+        <bottom style="dotted">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -4781,85 +4837,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dotted">
-          <color auto="1"/>
-        </left>
-        <right style="dotted">
-          <color auto="1"/>
-        </right>
-        <top style="dotted">
-          <color auto="1"/>
-        </top>
-        <bottom style="dotted">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -4905,54 +4882,20 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -4961,144 +4904,21 @@
         </patternFill>
       </fill>
       <border>
-        <left style="dotted">
+        <left style="thin">
           <color auto="1"/>
         </left>
-        <right style="dotted">
+        <right style="thin">
           <color auto="1"/>
         </right>
-        <top style="dotted">
+        <top style="thin">
           <color auto="1"/>
         </top>
-        <bottom style="dotted">
+        <bottom style="thin">
           <color auto="1"/>
         </bottom>
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dotted">
-          <color auto="1"/>
-        </left>
-        <right style="dotted">
-          <color auto="1"/>
-        </right>
-        <top style="dotted">
-          <color auto="1"/>
-        </top>
-        <bottom style="dotted">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -5450,10 +5270,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72E10509-3C20-4589-AC8E-F70F49D3CE0D}">
-  <dimension ref="A1:AC148"/>
+  <dimension ref="A1:AC149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="AC5" sqref="AC5"/>
+    <sheetView tabSelected="1" topLeftCell="C117" workbookViewId="0">
+      <selection activeCell="AD128" sqref="AD128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16640,7 +16460,7 @@
         <v>28</v>
       </c>
       <c r="AC131">
-        <f t="shared" ref="AC131:AC148" si="2">COUNTIF(T131:AB131, "&lt;28")</f>
+        <f t="shared" ref="AC131:AC149" si="2">COUNTIF(T131:AB131, "&lt;28")</f>
         <v>0</v>
       </c>
     </row>
@@ -18105,43 +17925,109 @@
         <v>6</v>
       </c>
     </row>
+    <row r="149" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>45688.59375</v>
+      </c>
+      <c r="B149" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C149" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D149">
+        <v>2027</v>
+      </c>
+      <c r="E149" s="2">
+        <v>38522</v>
+      </c>
+      <c r="F149" t="s">
+        <v>1117</v>
+      </c>
+      <c r="G149" t="s">
+        <v>1118</v>
+      </c>
+      <c r="H149" s="3" t="s">
+        <v>1119</v>
+      </c>
+      <c r="I149" s="3" t="s">
+        <v>1120</v>
+      </c>
+      <c r="J149" s="3" t="s">
+        <v>1121</v>
+      </c>
+      <c r="K149" t="s">
+        <v>83</v>
+      </c>
+      <c r="L149" t="s">
+        <v>27</v>
+      </c>
+      <c r="M149" t="s">
+        <v>25</v>
+      </c>
+      <c r="N149" t="s">
+        <v>1122</v>
+      </c>
+      <c r="O149" t="s">
+        <v>133</v>
+      </c>
+      <c r="P149" t="s">
+        <v>49</v>
+      </c>
+      <c r="T149">
+        <v>27</v>
+      </c>
+      <c r="U149">
+        <v>28</v>
+      </c>
+      <c r="V149">
+        <v>28</v>
+      </c>
+      <c r="W149">
+        <v>28</v>
+      </c>
+      <c r="X149">
+        <v>28</v>
+      </c>
+      <c r="Y149">
+        <v>28</v>
+      </c>
+      <c r="Z149">
+        <v>28</v>
+      </c>
+      <c r="AA149">
+        <v>27</v>
+      </c>
+      <c r="AB149">
+        <v>25</v>
+      </c>
+      <c r="AC149">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="T1:Z1048576">
-    <cfRule type="cellIs" dxfId="14" priority="8" operator="lessThan">
+  <conditionalFormatting sqref="T1:AB149 T228:AB1048576">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="lessThan">
       <formula>28</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X1:AB1">
-    <cfRule type="cellIs" dxfId="13" priority="9" operator="lessThan">
-      <formula>28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA1">
-    <cfRule type="cellIs" dxfId="12" priority="6" operator="lessThan">
-      <formula>28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB1">
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="lessThan">
-      <formula>28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC2:AC148">
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="greaterThan">
-      <formula>4.5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA1:AB1048576">
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="lessThan">
       <formula>28</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC1:AC1048576">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThan">
       <formula>3.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="greaterThan">
       <formula>3.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC2:AC148">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="greaterThan">
+      <formula>4.5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
